--- a/public/content/CHRISTIANITY 150 INSTEAD OF 35.xlsx
+++ b/public/content/CHRISTIANITY 150 INSTEAD OF 35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\Desktop\Historia github\past-playground-main\public\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE42C6-A7D1-41B8-A553-E2A8E6F82482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CB42C-32B4-473A-86C3-B669AE69DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{D6A249C5-1F98-4BCC-A35A-67FB5B82CE01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="426">
   <si>
     <t>id</t>
   </si>
@@ -1230,13 +1230,97 @@
   </si>
   <si>
     <t>&lt;p&gt;&lt;em&gt;He was neither king nor crusader, yet his voice could move armies. He wore no armor, but shaped the age with pen and prayer. In the heart of medieval Europe, one monk became the conscience of Christendom. His name was **Bernard of Clairvaux**, and he preached not only with words—but with a life of radical devotion to Christ.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born in 1090 into a noble family in Burgundy, Bernard turned away from the comforts of wealth to join the new and austere **Cistercian order**. At just 25, he founded a monastery in the remote valley of Clairvaux. There, simplicity ruled: no fine robes, no rich foods—only silence, labor, study, and prayer. Yet his monastery became a beacon, attracting hundreds of followers. His leadership sparked a renewal of monastic life across Europe.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Bernard’s influence quickly spread beyond the cloister. Popes and kings sought his counsel. Bishops listened to his rebukes. He became the most powerful churchman of his time—not by seeking power, but by living humbly and speaking boldly. He defended orthodoxy against heresies, especially **Peter Abelard’s rationalism**, and promoted deep mystical union with Christ over cold logic.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His writings—especially *On Loving God* and *Sermons on the Song of Songs*—burn with love for Christ. He saw the soul’s journey as a romance, where the human heart longs for divine embrace. *“What can I say of Your mercy, O Lord,”* he wrote, *“that leads You to stoop down and lift us to Yourself?”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But Bernard’s legacy is not without controversy. He was the fiery preacher who stirred Europe to launch the **Second Crusade**—believing it was a holy duty. When the campaign failed, many blamed him. Bernard, brokenhearted, said it was not the cause that failed—but the sins of the crusaders. His vision of Christian chivalry clashed with the brutal reality of war.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Still, Bernard remained a voice of conscience. He crowned kings, advised popes, and yet returned always to his monastery—choosing prayer over politics, contemplation over fame. When he died in 1153, all of Europe mourned.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Bernard of Clairvaux reminds the Church that true power is spiritual, that reform begins in the heart, and that love—not force—is the flame that changes the world. He was a mystic, a reformer, and a monk who shaped an age without ever leaving his vow.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;By the 12th century, the Church had tamed barbarian kings, built cathedrals to heaven, and sent crusaders across continents. Now, it turned inward—to the mind. In the bustling cities of Paris, Bologna, and Oxford, a new institution emerged: the **university**. It was not merely a school—it was a sacred forge for training the soul through study and reason.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Universities grew from cathedral schools, where clergy had long been trained in Scripture, theology, and canon law. But these new centers were different. They brought together scholars, students, and books from across Christendom. They offered degrees. They argued publicly. They became places where Christian doctrine and classical philosophy met in structured, intellectual debate.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;**Paris** became the leading center for theology. **Bologna** specialized in law. **Oxford** and **Cambridge** followed. The curriculum centered on the **trivium** (grammar, logic, rhetoric) and the **quadrivium** (arithmetic, geometry, music, astronomy). All of it was grounded in a desire to understand the created world—and the Creator behind it.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Scholars like **Peter Abelard**, **Thomas Aquinas**, and **Albert the Great** walked these halls. They questioned, debated, and wrote with rigorous faith. Their goal was not to undermine belief—but to deepen it. As Aquinas would later say, *“Truth cannot contradict truth.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The rise of universities also meant the rise of theological systems. The **Scholastic method** taught students to explore every question from multiple sides, weigh authorities, and arrive at well-reasoned conclusions. Scripture remained central—but reason was welcomed as its servant, not its rival.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Church supported this growth, seeing in it a way to train clergy, canon lawyers, and future bishops. But universities also created space for lay scholars, debates, and eventually challenges to Church authority. Seeds of the Reformation were planted in these lecture halls—even as the medieval Church reached its intellectual height.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The rise of universities changed the world. They preserved and advanced knowledge. They trained generations of leaders. And they showed that faith does not fear questions—because truth, wherever it is found, belongs to God.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;He was the brightest mind of his day—and the most controversial. Peter Abelard dazzled medieval Europe with his intellect, charm, and boldness. But his story is not only one of reason and rhetoric—it is also one of scandal, sorrow, and a quest for grace.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born in Brittany around 1079, Abelard rejected the life of a noble warrior to pursue philosophy. In Paris, he quickly gained fame as a master teacher, drawing students from across Europe. He challenged older scholars, including William of Champeaux, and revolutionized the study of logic and theology. His motto: *“By doubting we come to inquiry; through inquiry, we perceive truth.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Abelard’s most famous theological work, *Sic et Non* (“Yes and No”), gathered statements from Church Fathers that appeared to contradict each other. He didn’t offer final answers—but encouraged students to wrestle with tensions in doctrine. It was a bold method—one that laid the groundwork for Scholasticism. But to some, it bordered on irreverence.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His personal life brought even greater scandal. As a tutor to a brilliant young woman named **Héloïse**, Abelard fell in love. Their secret relationship led to a child—and eventually, marriage. But when Héloïse’s uncle discovered the affair, he had Abelard violently attacked and castrated. Humiliated and broken, Abelard became a monk. Héloïse entered a convent. Yet their love endured, captured in a series of letters that are still read today for their emotional depth and spiritual struggle.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Theologically, Abelard clashed with **Bernard of Clairvaux**, who accused him of rationalism and pride. At the Council of Sens in 1140, Bernard had Abelard’s teachings condemned. Abelard submitted to the pope, seeking peace. He spent his final years under the protection of Peter the Venerable, abbot of Cluny, and died in 1142—exiled but not silenced.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Abelard’s legacy is complex. He was a pioneer of critical thought in the Church—yet also a cautionary tale of intellect without humility. His *Moral Influence Theory* of the atonement emphasized God's love more than divine justice, shaping later theological debates. And his tragic romance with Héloïse reminds us that even the greatest minds are not immune to passion and pain.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In Abelard, reason met romance, and brilliance met brokenness. His life asks: can one seek truth without losing grace? Can intellect serve faith without surpassing it?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;He was called “the Dumb Ox” by his classmates—quiet, large, and slow to speak. But his teacher predicted, *“This ox will bellow so loud the world will hear it.”* And he was right. **Thomas Aquinas** would become the voice of medieval theology, blending faith and reason into one towering system of Christian thought.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born around 1225 near Naples, Thomas came from a noble family. Against their wishes, he joined the **Dominican Order**, a group of preachers devoted to poverty and learning. His family imprisoned him to change his mind—but he refused. Eventually freed, he studied under the great scholar **Albert the Great**, and began writing, teaching, and shaping the soul of Christian Europe.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Thomas believed that reason and revelation were not enemies, but allies. Deeply influenced by **Aristotle**, whose works had recently been rediscovered, he sought to harmonize philosophy with Christian doctrine. His masterpiece, the *Summa Theologiae*, was a monumental attempt to explain the entirety of Christian theology in a logical, structured way.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;He asked questions like: Does God exist? What is happiness? How do we know right from wrong? For each, he laid out arguments on both sides, then reasoned toward a conclusion grounded in Scripture and Church tradition. His famous **Five Ways** offered philosophical arguments for the existence of God—such as the idea that every effect must have a cause, leading back to an “Unmoved Mover.”&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But Aquinas wasn’t just a philosopher. He was a mystic. Near the end of his life, after a powerful spiritual experience during Mass, he stopped writing. *“All I have written seems like straw compared to what I have seen,”* he said. He died in 1274, never completing the *Summa*—yet his unfinished work would guide the Church for centuries.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1323, he was canonized as a saint. In 1567, he was declared a **Doctor of the Church**. Today, his writings remain central to Catholic theology, and his thought continues to shape debates on ethics, law, and the nature of God.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Thomas Aquinas showed the world that faith need not fear the mind—and that the deepest truths of God can be approached with both reverence and reason. In him, the Church found not only a teacher, but a thinker whose echo still resounds.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;It was never meant for scholars—it was written for students. Yet it became one of the greatest theological achievements in Christian history. The *Summa Theologica*, composed by **Thomas Aquinas**, is more than a book. It’s a cathedral of thought—vast, structured, beautiful, and built for the glory of God.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Thomas began the *Summa* around 1265, intending it as a comprehensive manual for training young Dominicans in theology. But what he created was something far greater: a systematic exploration of God, creation, morality, Christ, and salvation—ordered with perfect clarity and humility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Each section follows a distinctive pattern. Thomas begins with a question—*“Is there a God?”*, *“What is law?”*, *“Did Christ have a body?”*—then presents objections, arguments in favor, and finally his own conclusion, introduced with the phrase: *“I answer that...”* He closes each article by replying to every objection. Nothing is left unanswered.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Some of the most famous parts include his **Five Ways**—rational arguments for God’s existence based on motion, causation, necessity, gradation, and design. But the *Summa* doesn’t stop at abstract philosophy. It explains the nature of angels, the structure of the human soul, the meaning of virtues like faith, hope, and charity, and the mystery of the sacraments.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In its third part, Thomas turns to Christ: His incarnation, His suffering, His resurrection, and the sacraments as the means of grace. Yet Thomas never finished the work. In December 1273, after a profound mystical vision, he laid down his pen and said, *“I can write no more. All I have written seems like straw compared to what I have seen.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The *Summa Theologica* was left unfinished—but even incomplete, it shaped the future. It became the foundation of Catholic theological education and remains one of the most cited works in Christian philosophy and ethics to this day.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;More than answers, the *Summa* offers a vision: that faith is ordered, creation is rational, and theology is not chaos but cosmos. Through Aquinas’ mind, the Church glimpsed the harmony between divine revelation and human reason—and saw that truth, in every form, leads back to God.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;If Thomas Aquinas built a cathedral of logic, **Bonaventure** carved a chapel of flame. He was a scholar, yes—but above all, a mystic. While others explained the faith with syllogisms, Bonaventure sang of it with love. In him, the soaring spirituality of **St. Francis of Assisi** found its greatest theological voice.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born around 1217 in Italy, Bonaventure joined the **Franciscan Order** as a young man. He believed his recovery from a childhood illness came through the prayers of Francis himself. From then on, his life would be marked by a passionate love for Christ, shaped through simplicity, humility, and devotion to the cross.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Bonaventure studied in Paris, where he became a contemporary of Thomas Aquinas. But while Aquinas approached God through Aristotle and reason, Bonaventure looked to **Augustine** and the burning heart. To him, the journey to God was not just intellectual—it was spiritual, personal, and transformative. In his view, *“No one reaches truth unless he first burns with love.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His most famous work, the **Itinerarium Mentis in Deum** (*The Journey of the Soul into God*), outlines a mystical ascent through six stages—from the senses, through reason, to contemplation—until the soul is lost in the light of divine presence. At the summit, knowledge gives way to love, and the soul enters the silence where only God remains.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Bonaventure was also a skilled administrator. In 1257, he was elected Minister General of the Franciscans, helping to restore unity within the rapidly growing and divided order. He defended Franciscan poverty, guided reforms, and emphasized that the true spirit of St. Francis was not just external poverty, but inward transformation through Christ.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1274, Bonaventure was summoned to the **Second Council of Lyon**, a major attempt to reconcile the Eastern and Western Churches. There, while serving as a voice of peace and unity, he died suddenly—his life cut short, but his work enduring.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Canonized in 1482 and named a **Doctor of the Church**, Bonaventure remains a symbol of how theology can be not only correct—but beautiful. He reminds us that the goal of faith is not merely to know God, but to be consumed by Him in love.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;The first thousand years of Christianity had passed—years of martyrdom and empire, councils and creeds, saints and heresies. By the year 1000 AD, the Church had stretched across continents. But beneath the surface of unity, deep cracks were forming. Christianity was global—but it was no longer fully united.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In the **West**, the Roman Catholic Church had become closely entwined with kings, law, and empire. The pope in Rome stood as both a spiritual father and a political force. Latin was the language of worship. Monasteries were thriving. Reform movements, like the Cluniac revival, called the Church back to holiness and order.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In the **East**, the Byzantine Empire supported the Orthodox Church, centered in Constantinople. Greek was its sacred language. Its worship was filled with icons, incense, and mystical theology. The patriarchs of the East operated in a more collegial structure, resisting the growing claims of papal supremacy.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Doctrinally, both sides shared the same faith: one God in three persons, Christ fully divine and fully human, the authority of Scripture and tradition, and the seven sacraments. But cultural, political, and theological tensions simmered. The **Filioque** clause, the question of papal authority, and disputes over liturgical practices strained relations. Unity still held—but barely.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Beyond the Roman and Byzantine worlds, Christianity had spread even farther. In **Ethiopia**, it flourished with ancient traditions. In **Armenia** and **Georgia**, it survived under pressure. In **Ireland**, monks had once reignited learning across Europe. In **Russia and the Slavic lands**, new converts built churches with fresh zeal. And in the Middle East, **Nestorian Christians** still preached as far as China.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But Christianity also faced new challenges. **Islam**, born in the 7th century, had conquered vast territories once Christian—Jerusalem, Antioch, Alexandria, North Africa, and Spain. Millions now lived under Muslim rule. Tensions between faiths were rising.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The year 1000 was a moment of both glory and fragility. The Church was vast, vibrant, and filled with saints—but haunted by disunity. The East and West still claimed one faith, one baptism—but they were drifting. Within half a century, the schism would come. Yet even in its divided state, the Church carried the name of Christ to the edges of the known world—bearing witness, in triumph and in trial.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;“The eye through which I see God is the same eye through which God sees me.” These words came from **Meister Eckhart**, a 14th-century Dominican friar whose teachings reached into the depths of Christian mysticism. To some, he was a prophet of divine union. To others, a dangerous thinker who blurred the line between Creator and creature. Few left his sermons unchanged.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born around 1260 in Thuringia (modern-day Germany), Eckhart joined the **Dominican Order** and rose through its ranks, teaching in Paris and preaching across the Holy Roman Empire. He spoke not to scholars alone, but to ordinary believers—especially the growing lay movements who longed for direct communion with God.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His sermons, often in German rather than Latin, were filled with bold language and mystical paradoxes. He spoke of the “birth of God in the soul”—the idea that the divine Word is eternally born within the heart that is emptied of self. *“The soul must strip itself of all images,”* he said, *“to find the naked God.”* To Eckhart, true union with God required radical detachment—not only from the world, but from one’s own will.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;He also taught that at the deepest level, the soul shares in God’s being—not becoming God, but resting in perfect unity with Him. This led some to accuse him of **pantheism** or denying the distinction between God and creation. In 1329, Pope John XXII condemned parts of his teaching as heretical—though Eckhart himself had died (possibly in Avignon) before the final verdict was issued.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yet many of his ideas were preserved and cherished by later mystics, especially in the Rhineland: **Johannes Tauler**, **Henry Suso**, and even **Martin Luther**, who admired Eckhart’s courage and clarity. His emphasis on interior transformation, stillness, and divine indwelling has found echoes in modern contemplative traditions.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Meister Eckhart challenged the Church to move beyond mere ritual and into the mystery of divine presence. His legacy is not without tension—but his central message remains: that beneath all noise, pride, and fear, the soul can find stillness—and in that stillness, find God.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;He gave up riches for rags, status for suffering, and a world of privilege for the path of Christ. **Francis of Assisi** is one of the most beloved figures in Christian history—not for what he built, but for what he let go. In an age of power and wealth, he chose to follow Jesus barefoot, joyfully, and without fear.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born in 1181 or 1182 to a wealthy cloth merchant in Assisi, Italy, Francis lived a comfortable youth filled with music, parties, and dreams of glory. But something shifted after illness and war. He became restless. Then one day, while praying in a crumbling chapel, he heard Christ speak: *“Francis, rebuild my Church, which is falling into ruin.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Taking the words literally at first, Francis began restoring churches with his own hands. But soon he understood: the call was to rebuild the heart of the Church through a life of radical faith. He renounced his father’s wealth, stripped off his fine clothes, and embraced a life of **poverty**, **humility**, and **wandering preaching**.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Francis gathered followers who lived as he did—owning nothing, serving the poor, and proclaiming the gospel with joy. In 1209, Pope Innocent III approved the new movement, which became known as the **Franciscan Order**. Their motto was simple: *“Follow the teachings of our Lord Jesus Christ and walk in His footsteps.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Francis saw all creation as family. He called animals his “brothers” and “sisters,” preached to birds, and praised God through the sun and moon. He composed the *Canticle of the Creatures*, a hymn of joy and thanksgiving that inspired future generations of Christian environmental thought.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But he also bore Christ’s pain. In 1224, while praying in solitude on Mount La Verna, Francis received the **stigmata**—wounds resembling those of Christ’s crucifixion. He kept them hidden, but they marked the depth of his union with the suffering Savior.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Francis died in 1226, nearly blind, sick, and lying on the bare earth—just as he wished. He was canonized only two years later. His legacy sparked one of the most influential movements in Church history, and his life remains a model of peace, simplicity, and Christlike love.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Francis of Assisi did not reform the Church with sermons or councils—but with a life so full of Christ that it shook the world. He showed that the gospel could still be lived—fully, freely, and with joy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In an age when heresies spread like wildfire and the Church’s credibility was crumbling, one man believed the answer wasn’t the sword—but the sermon. **Dominic of Caleruega** founded a movement of humble, educated preachers who would fight falsehood not with force, but with the light of truth. They became the **Order of Preachers**—known to history as the **Dominicans**.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born around 1170 in Spain, Dominic came from a noble family and studied theology in Palencia. During a journey through southern France, he encountered the **Albigensians** (or Cathars), a popular dualist movement that taught the material world was evil and denied Christ’s true incarnation. Dominic was grieved not only by the heresy—but by the Church’s poor response: wealthy clergy, empty arguments, and threats of violence.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Dominic chose a different path. He and his companions traveled by foot, lived in poverty, and debated with clarity and gentleness. He believed heresy could only be overcome by example, by truth, and by love. His vision was to form a new order of **scholar-preachers**, trained in Scripture, fluent in theology, and devoted to prayer and study.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1216, Pope Honorius III officially recognized the **Dominican Order**. It combined monastic discipline with the freedom to move, teach, and serve in cities and universities. Dominicans took vows of poverty but embraced intellectual life. Their motto: *“Veritas”*—Truth.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Dominic’s followers rapidly spread across Europe. They preached in marketplaces, taught in newly founded universities, and played a key role in battling false teachings and deepening Christian doctrine. Notably, the greatest theologian of the Middle Ages—**Thomas Aquinas**—was a Dominican.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Dominic died in 1221, worn out by travel and mission. He was canonized in 1234. His order would grow to include not only preachers but contemplatives, nuns, mystics like **Catherine of Siena**, and missionaries who would reach from Europe to Asia and the Americas.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Dominicans remind the Church that truth matters—and that it must be spoken with clarity, humility, and compassion. In Dominic, the Church found a man of deep prayer, sharp intellect, and unwavering charity—a preacher who believed the Word of God, faithfully lived, could still change the world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;As the Church grew in wealth and influence, not everyone followed. Some turned away—not in rebellion against Christ, but in protest against corruption. The **Cathars** and **Waldensians** were two of the most significant medieval movements to challenge the Church’s authority. One rejected the physical world; the other called for Gospel simplicity. Both were condemned as heresies—but their stories reveal a Church struggling with its own soul.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In southern France, the **Cathars**—also called **Albigensians**—taught a radical dualism: that the material world was evil, created by a lesser god, and that only the spiritual was pure. They rejected the sacraments, denied Christ’s physical incarnation, and preached a harsh asceticism. Marriage, meat, even the cross were viewed with suspicion. They lived simply and gained followers quickly, especially among those disillusioned with the wealth of Catholic bishops.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Church responded first with preaching—Saint Dominic among them. But when persuasion failed, Pope Innocent III launched the **Albigensian Crusade** (1209–1229), a brutal military campaign that crushed Catharism by force. Later, the **Inquisition** was established to root out lingering heresy across Europe.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In northern Italy, a different movement arose. **Peter Waldo**, a wealthy merchant from Lyon, gave up his fortune around 1173 to live like the apostles—preaching repentance, poverty, and the teachings of Jesus. His followers, the **Waldensians**, emphasized Scripture in the vernacular and lay preaching, rejecting what they saw as Church excess and unbiblical traditions.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Though their beliefs were far closer to Catholic orthodoxy than the Cathars, the Waldensians were still excommunicated. Their refusal to submit to Church hierarchy and their lay preaching challenged clerical authority. For centuries, they survived underground—persecuted, scattered, but not extinguished. Many would later join the Protestant Reformation.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Cathars and Waldensians were vastly different—one mystical and dualistic, the other biblical and reform-minded. But both exposed a growing hunger for spiritual authenticity in a Church seen by many as distant and compromised.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;These “heresies” remind us that dissent often comes not from hatred, but from longing—for truth, for holiness, and for a Church that lives as it preaches. And they foreshadowed the storms that would shake Europe in the centuries to come.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In the name of orthodoxy, the Church turned inward—and sharpened its tools. The **Inquisition**, a system of ecclesiastical courts created to root out heresy, became one of the most feared institutions of the medieval world. Born from a desire to protect the faith, it would become a symbol—both of the Church’s zeal and its deepest failings.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The roots of the Inquisition stretch back to the 12th and 13th centuries, when heresies like **Catharism** and **Waldensianism** spread across southern France and northern Italy. After failed attempts at persuasion, and following the brutal **Albigensian Crusade**, the Church established more formal mechanisms to investigate and suppress heresy.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1231, **Pope Gregory IX** formally created the **Papal Inquisition**, appointing Dominican and Franciscan friars as inquisitors. These men were highly trained in theology and tasked with examining doctrine—but also with interrogating suspects. Trials were secret. Accusations could be anonymous. And while some procedures sought fairness, others opened the door to abuse.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;If heresy was proven and the accused refused to recant, the Church handed them over to secular authorities for punishment—often including imprisonment, confiscation of property, or execution by burning. The Church did not carry out the executions itself—but it authorized the process. In this way, violence and faith became tragically entwined.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Later, national versions emerged. The **Spanish Inquisition**, founded in 1478 under **Ferdinand and Isabella**, became notorious for its intensity and cruelty—especially toward **Jews**, **Muslims**, and **conversos** (converted Jews suspected of secretly practicing Judaism). The **Portuguese** and **Roman Inquisitions** followed. Even the works of **Galileo** were judged by the Inquisition in the 17th century, as science began to challenge traditional interpretations of Scripture.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The stated goal was always the salvation of souls. The Church feared that heresy would not only lead individuals astray, but tear apart Christian unity. Yet the methods used often betrayed the very gospel the Church sought to defend. Fear, coercion, and punishment replaced persuasion, humility, and grace.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Modern popes and Church leaders have since acknowledged the sins of the Inquisition. **Pope John Paul II**, during the Jubilee Year 2000, asked for forgiveness for the violence done in the name of Christ. The legacy remains painful—but also important to remember. It reminds us that truth must always be defended with love, never with terror—and that the Church is at its best not when it controls, but when it converts through compassion.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In an age when most people couldn’t read, the Church turned to stone and stained glass to tell the story of salvation. The result was the **Gothic cathedral**—not merely a building, but a vision in stone of heaven on earth. These towering churches became the Bible in architecture, preaching through beauty, space, and light.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Gothic style emerged in the 12th century, beginning with the **Abbey of Saint-Denis** near Paris. Under Abbot Suger’s guidance, architects began to build with soaring arches, pointed vaults, and flying buttresses—allowing walls to rise higher and windows to grow wider. The goal was transcendence. Cathedrals like **Chartres**, **Reims**, and **Notre-Dame de Paris** lifted the eyes—and the soul—toward God.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;These churches were not silent. Their **stained glass windows** told the stories of Adam and Eve, Abraham and Isaac, Mary and Jesus, the Last Judgment, the saints, and the sacraments. Sunlight streamed through sacred narrative, bathing worshippers in colored light—a foretaste of divine glory.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;**Sculptures** adorned the facades: apostles and angels, martyrs and monsters. Gargoyles warned of judgment. Carved scenes from Christ’s life greeted the faithful at every door. Everything taught: sin, grace, repentance, and the hope of resurrection.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Inside, the layout itself had meaning. The cathedral was shaped like a cross. The **altar** was the center—where heaven touched earth in the Eucharist. The **nave** was the body of the people. The **rose windows** symbolized divine order and perfection. Every line, every beam, every color was theological.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Gothic cathedrals took generations to build—sometimes centuries. Whole cities worked on them. Rich and poor contributed. Pilgrims journeyed for miles just to see them. They were expressions of faith, community, and cosmic vision. They proclaimed that God dwelled not just in heaven, but among His people.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In the Gothic cathedral, theology became visible. Beauty was not a luxury—it was a teacher. These cathedrals stood as sermons in stone, reminding the Church that art, imagination, and wonder have always had a place in the worship of the eternal God.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In the mid-14th century, death swept across Europe with terrifying speed. The **Black Death**, caused by the bubonic plague, killed an estimated one-third to one-half of the population. Cities emptied. Families vanished. Streets echoed with the sound of funeral bells. And as people turned to the Church for answers, they were met with silence, sorrow—and sometimes despair.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The plague struck in 1347, likely arriving from Asia through Mediterranean ports. It spread through fleas, rats, and human contact. Entire villages were wiped out in days. Priests died in large numbers as they tended the sick. Monasteries were emptied. In some places, there were not enough clergy left to bury the dead or administer last rites.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;For many, the plague was seen as **God’s judgment** for sin. Processions of flagellants marched through towns, whipping themselves in penance. Preachers warned of divine wrath. Others turned to **apocalyptic fear**, believing the world was ending. But not all responses were despairing—some viewed the suffering as a call to repentance, humility, and deeper faith.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Church itself was shaken. With so many dead, spiritual authority weakened. **Clerical standards dropped** as inexperienced replacements were rushed into ministry. Confidence in the Church’s ability to protect and intercede faltered. Many began to question not only Church leadership, but their own understanding of God’s justice and mercy.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Tragically, the plague also fueled **violence and scapegoating**. In some areas, **Jewish communities** were falsely accused of poisoning wells and bringing the disease. Pogroms followed. Hatred, stirred by fear, added human evil to natural horror.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yet even in the darkness, faith endured. New devotional movements emerged, emphasizing personal piety, suffering, and the imitation of Christ. The **Dance of Death** motif became popular in art—reminding all that death comes for kings and peasants alike. The plague changed how Christians prayed, how they viewed life and death, and how they understood God’s silence and presence in suffering.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Black Death did not destroy Christianity—but it transformed it. It exposed the Church’s fragility, deepened popular piety, and planted seeds of questioning that would grow in the centuries ahead. Out of pestilence came prayer—and out of death, the search for meaning in a broken world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In a time of plague, war, and religious turmoil, a woman enclosed in a small cell offered the world a vision of profound hope. **Julian of Norwich**, an English anchoress and mystic, saw not only suffering—but divine love at the center of all things. Her words, written in seclusion, still echo with comfort: *“All shall be well, and all shall be well, and all manner of thing shall be well.”*&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Little is known about her life. She was likely born around 1342, and lived during the Black Death, the Hundred Years’ War, and the Great Schism. Around the age of 30, while gravely ill, Julian received a series of **sixteen mystical visions** of Christ’s suffering, love, and triumph. When she recovered, she wrote them down in a short text called the **Short Text**. Years later, she expanded it into what became the **first known book written in English by a woman**: *Revelations of Divine Love*.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Julian’s visions were vivid, intimate, and deeply theological. She saw Christ bleeding on the cross—not in wrath, but in compassion. She saw God as both Father and Mother—nurturing, tender, and full of grace. She described sin not as a reason for punishment, but as a necessary wound through which God reveals His mercy. Her theology was bold: *“Sin is behovely,”* she wrote, *“but all shall be well.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;She became an **anchoress**, choosing to live walled into a small room attached to a church in Norwich, where she spent the rest of her life in prayer, writing, and offering spiritual counsel through a window. People came from near and far to hear her wisdom, drawn to her peaceful certainty in a chaotic age.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Julian did not ignore suffering—she lived through one of the most painful centuries in Europe’s history. But she insisted that behind all pain was the **unchanging love of God**. Her visions made no promise of ease, only the assurance that in the end, God would make all things right.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Julian of Norwich remains a rare voice of light in a dark age—gentle, wise, and unwavering in her confidence that love is the final word. In a world still searching for peace, her words offer a quiet but radiant theology of hope.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;For almost 40 years, there were two popes—sometimes even three. Each claimed to be the true successor of Peter. Each excommunicated the others. And all of Europe was forced to choose sides. The **Western Schism** wasn’t a split in doctrine, but in leadership. It was a crisis of trust, and it shook the very heart of the Catholic Church.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The roots of the schism go back to **1309**, when the papacy moved from Rome to **Avignon** in southern France. For nearly 70 years, the popes lived there, under strong French influence. Critics called them the “Babylonian Captivity” of the papacy. Rome fell into decay. Trust in the pope as a universal shepherd began to erode.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1377, under pressure from reformers like **Catherine of Siena**, Pope **Gregory XI** returned the papacy to Rome. But after his death in 1378, a crowd in Rome demanded an Italian pope. The cardinals hastily elected **Urban VI**, but his harsh reforms alienated them. Many cardinals fled to Avignon and elected a rival pope, **Clement VII**.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Church was now split. Kings and nations chose sides—France, Scotland, and Spain supported Avignon; England, the Holy Roman Empire, and others backed Rome. Both popes appointed bishops, issued decrees, and claimed authority. The confusion and scandal weakened the Church’s moral authority and led many to question its unity and credibility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Attempts at resolution failed—until 1409, when a council tried to depose both popes and elect a third, **Alexander V**. But the two existing popes refused to step down. Now, there were three popes.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Finally, the **Council of Constance** (1414–1418) resolved the chaos. All rival popes were deposed or resigned. In 1417, **Martin V** was elected, restoring a single papacy in Rome. The schism was over—but the damage was deep. Faith in papal authority had been badly shaken, and calls for reform grew louder.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Western Schism taught the Church a painful lesson: that power, pride, and politics can fracture even the most sacred institutions. It also led to greater calls for **conciliarism**—the idea that Church councils, not just popes, hold supreme authority. Though eventually rejected, the movement foreshadowed the challenges of the Reformation to come.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;For four decades, Christendom looked to Rome and Avignon—and saw division. And yet, through it all, the faith of ordinary believers endured, waiting for unity to be restored.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;She was a woman with no official title, no clerical training, and no wealth—yet kings listened to her, popes feared her, and the sick clung to her prayers. **Catherine of Siena** lived in an age of plague, schism, and war. But she burned with such love for Christ and His Church that her words helped hold it together when it was tearing apart.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born in 1347 in Siena, Italy—the youngest of 25 children—Catherine had visions of Christ from an early age. At 16, she joined the **Dominican Third Order**, remaining a laywoman while embracing a life of prayer, fasting, and service. For several years, she lived in near-total seclusion, speaking little. Then, in her early twenties, she emerged with a powerful sense of mission.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;She began caring for plague victims, nursing lepers, and ministering to the poor. Her holiness and wisdom drew followers. But more astonishing was her influence far beyond Siena. Though a woman in a man’s world, Catherine began writing letters—to cardinals, nobles, and even the pope himself—calling for repentance, unity, and reform.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;She begged Pope **Gregory XI**, then in Avignon, to return the papacy to Rome. *“Be a man!”* she wrote, urging him to act boldly for the sake of the Church. In 1377, he did—ending the so-called **Babylonian Captivity** of the papacy. But after his death, the **Western Schism** began. Catherine threw herself into efforts to heal the divide, fiercely loyal to Pope **Urban VI**, even when many turned against him.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Catherine’s writings burn with mystical intimacy. In her major work, *The Dialogue*, she recounts conversations between her soul and God the Father—exploring themes of divine love, the dignity of suffering, and the need for holiness. Her language is vivid and emotional, filled with images of Christ as both lover and Savior. *“You are a fire always burning, never consumed,”* she prayed. *“You are beauty, you are wisdom, you are love.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;She died in 1380 at just 33 years old, worn out by fasting, intercession, and spiritual labor. In 1461, she was canonized. In 1970, Pope Paul VI named her a **Doctor of the Church**—one of the first women to receive the title.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Catherine of Siena stood at a time when the Church seemed to be falling apart. She reminded it—and us—that the answer is not despair, but holy fire. Her voice still calls today: to love boldly, speak truthfully, and trust that no soul is too small to shake the world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In 1453, the great Christian city of **Constantinople**—once the crown of the Eastern Roman Empire—fell to the armies of **Sultan Mehmed II**. This was not only the end of Byzantium—it was a symbol of how division within Christianity can weaken even the strongest walls. And strangely, from this tragedy would emerge a rebirth: the spark that helped ignite the **Renaissance in Italy**.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Constantinople had long been the center of Eastern Orthodox Christianity. But by the 15th century, it was surrounded, weakened, and desperate. To secure help from the West, the Byzantine emperor **Constantine XI** agreed to a controversial reunion with the Roman Church at the **Council of Florence** (1439). The move was deeply resented by many in the East, who saw it as submission to the pope. Unity was signed on paper—but not in hearts.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;When the Ottomans attacked in 1453, aid from the West was too little and too late. Latin and Greek Christians still mistrusted one another—refusing even to celebrate the Eucharist together in many cases. The old wounds of the **Great Schism of 1054**, and the sack of Constantinople by Crusaders in **1204**, had never fully healed.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;On **May 29**, the city fell. Thousands were slaughtered. The great **Hagia Sophia** was converted into a mosque. The Byzantine Empire was gone. The Christian East, once dominant, was now ruled by Islam. For the Orthodox Church, this marked the beginning of centuries under Ottoman domination.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But the fall also had unintended effects in the West—especially in **Italy**. As Constantinople fell, **Greek scholars** and **manuscripts** fled westward, particularly to **Florence**, **Venice**, and **Rome**. These refugees brought with them knowledge of **ancient Greek philosophy, science, and literature**—texts that had been largely forgotten or ignored in Latin Europe. They helped revive **Plato**, **Aristotle**, and the **Church Fathers** in their original language.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This intellectual migration helped ignite the **Italian Renaissance**, a cultural explosion of art, science, and humanism. Artists like **Michelangelo**, thinkers like **Marsilio Ficino**, and popes like **Nicholas V** were all shaped by this new influx of Greek knowledge. Ironically, the fall of a Christian city to a Muslim empire helped rebirth classical learning in Christian Europe.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Thus, the fall of Constantinople was both an **ending and a beginning**: the end of a Christian empire weakened by disunity, and the beginning of a new cultural era that would transform the West. It remains a sobering reminder that faith must stand united in crisis—but also that God can bring resurrection even through ruin.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;Long before Martin Luther nailed his theses, a scholar at Oxford was already calling for reform. **John Wycliffe**, born around 1320, became one of the first to challenge the authority of the pope, the wealth of the Church, and the language of Scripture. For this, he earned both condemnation—and a legacy that would echo through the Reformation.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Wycliffe was a brilliant theologian and philosopher, educated at Oxford. He lived during a time of deep corruption in the Church: lavish papal courts, political entanglements, and rising resentment from common people. The **Western Schism**, with multiple popes claiming authority, only deepened his suspicion that the Church had strayed from Christ.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Wycliffe believed the Bible—not the pope—was the supreme authority in matters of faith. He denounced indulgences, criticized clerical greed, and rejected the idea of **transubstantiation** (the belief that the bread and wine become the literal body and blood of Christ). Most radically, he began translating the **Bible into English**, believing that every Christian had the right to read God’s Word in their own tongue.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;To spread his message, he sent out **poor preachers**, known as the **Lollards**, to teach the gospel in English. These men traveled barefoot, preaching simplicity, repentance, and a return to Scripture. Their movement would face persecution, but it planted seeds that would grow into powerful reform centuries later.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Church declared Wycliffe a heretic after his death. His writings were banned, and in 1415, the **Council of Constance** condemned him. In 1428, his body was exhumed, his bones burned, and his ashes scattered in the River Swift—an act meant to erase him. But it was too late. His ideas had already spread across England and Europe.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Wycliffe’s translation of the Bible shaped the English language. His calls for reform influenced later figures like **Jan Hus** and **Martin Luther**. For many, he was the “**Morning Star of the Reformation**”—the first light before the dawn.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;John Wycliffe reminds the Church that true reform often begins not in rebellion, but in return—to Scripture, to truth, and to Christ Himself.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;Before Luther stood at Worms, **Jan Hus** stood at Constance. A century before the Reformation shook Europe, Hus dared to confront a corrupt Church, preach in the language of the people, and proclaim that Christ—not the pope—was the true head of the Church. For this, he was burned alive. But his fire lit the path for those who would follow.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Born around 1372 in Bohemia (modern-day Czech Republic), Hus studied theology and became a popular preacher at the **Bethlehem Chapel** in Prague. There, he preached boldly in Czech, not Latin—calling for repentance, purity in the clergy, and faithfulness to Scripture. He was deeply influenced by the writings of **John Wycliffe**, whose ideas had reached Prague through scholars and students.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hus criticized the selling of indulgences, the moral failures of priests and popes, and the growing gap between the Church’s wealth and the gospel’s simplicity. He taught that the Church was made up of all believers—not just the clergy—and that only God, not any pope, could forgive sins. He said: *“Seek the truth, listen to the truth, teach the truth, love the truth, live the truth, and defend the truth unto death.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1415, Hus was summoned to the **Council of Constance** under promise of safe conduct. He hoped to defend his teachings. Instead, he was imprisoned, tried for heresy, and condemned. He refused to recant unless shown from Scripture that he was wrong. On July 6, 1415, he was burned at the stake. His final words were reported as: *“Lord Jesus, it is for thee that I patiently endure this cruel death. I pray thee to have mercy on my enemies.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His death sparked outrage in Bohemia. His followers—called **Hussites**—rose in revolt, leading to decades of religious war. Though later suppressed, their movement foreshadowed many ideas of the Reformation: vernacular preaching, communion in both kinds, and the supremacy of Christ.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Jan Hus stood alone against the most powerful institution of his time, armed only with the gospel. He was condemned as a heretic—but remembered as a martyr. His legacy reminds us that truth often comes at great cost—and that the fire of faith can outlive the flames of death.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;He wielded a pen sharper than any sword, and his wit could cut through hypocrisy like fire through straw. **Desiderius Erasmus**, born in 1466 in the Netherlands, was the most famous scholar of his age. He called for reform, but not revolt—purity, but not schism. Though he never left the Catholic Church, his writings helped lay the intellectual groundwork for the Protestant Reformation.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Raised in monastic schools and trained in Latin and Greek, Erasmus became a master of language and a pioneer of the **Christian humanist movement**. He believed the renewal of the Church would come not through war or politics, but through **education**, **virtue**, and a return to **the sources**—especially **Scripture** and the writings of the early Church Fathers.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1516, he published a groundbreaking **Greek edition of the New Testament** with a new Latin translation. It was the first major effort to return to the original text of the Bible, correcting centuries of copying errors and poor translations. His motto: *“Ad fontes”*—“to the sources.” This work directly influenced Martin Luther’s translation of the Bible and the broader reform movement.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Through biting satire, especially in his famous *Praise of Folly*, Erasmus mocked the corruption of the clergy, the superstition of the masses, and the empty rituals of religion. Yet his critiques came from within. He never sought to break with Rome, and he feared the violence and division that reform might bring if pursued recklessly.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;When **Luther** rose to prominence, Erasmus at first sympathized with his goals—but not his methods. Their break became public when Erasmus defended **free will** in his book *On the Freedom of the Will*, and Luther responded fiercely with *The Bondage of the Will*. Erasmus urged moderation, patience, and dialogue. Luther, by contrast, believed a decisive break was necessary.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Erasmus remained a Catholic until his death in 1536, never joining the Reformation—but never silenced either. Both sides claimed him, and both misunderstood him. His legacy was not in building churches or founding movements, but in preparing minds for reform.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Desiderius Erasmus was a reformer without rage, a critic without cruelty, and a scholar who believed that truth must be pursued not only with fire—but with grace. He reminds the Church that sometimes the most enduring revolutions begin with thought, not protest.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>It was 1517, and the Church had become rich—too rich. Popes built grand palaces. Bishops sold indulgences—papers that claimed to forgive sins—for coin. In Wittenberg, a German monk named Martin Luther had had enough. He nailed a parchment to the church door—95 Theses—bold statements written in Latin, attacking corruption and especially the sale of indulgences. One of them read: “When the coin in the coffer rings, the soul from purgatory springs”—nonsense! Luther thundered: “No! Only God forgives sins.” The Theses spread like wildfire, copied, translated, and printed. Luther wasn’t just criticizing a practice. He was challenging the entire system—popes, councils, the idea that the Church stood between man and God. “The just shall live by faith,” he declared (Romans 1:17). Not rituals. Not payments. Faith alone. This idea—sola fide—would ignite the Protestant Reformation. The Church demanded he recant. He refused. “Here I stand. I can do no other.” The Christian world was breaking apart.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;What began as a protest over indulgences became a revolution in theology. **Lutheranism**, founded on the teachings of **Martin Luther**, reshaped Christianity by returning to the gospel’s foundation: grace alone, faith alone, Scripture alone. It was not merely a rebellion—it was a reformation, seeking to recover what had been lost.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;At the heart of Lutheranism are **three solas**:&lt;/p&gt; &lt;ul&gt; &lt;li&gt;&lt;strong&gt;Sola Scriptura&lt;/strong&gt; – Scripture alone is the final authority in matters of faith and doctrine, not Church tradition or papal decrees.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Sola Fide&lt;/strong&gt; – Justification comes by faith alone, not through works or merit. It is a gift from God.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Sola Gratia&lt;/strong&gt; – Salvation is by grace alone—unearned and undeserved, flowing entirely from God's mercy through Christ.&lt;/li&gt; &lt;/ul&gt; &lt;p&gt;Luther taught that humanity is utterly dependent on God’s grace and that no good works, penance, or indulgences can earn salvation. In his eyes, the Church had burdened souls with fear—where the gospel should have offered freedom.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The **priesthood of all believers** was another key Lutheran idea: every Christian has direct access to God through Christ, without needing a human mediator. This idea undermined clerical hierarchies and emphasized personal responsibility in faith and Scripture reading.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In worship, Lutheranism kept a **liturgical structure**, but stripped away what it saw as unbiblical: prayers to saints, the veneration of relics, and the Mass as a re-sacrifice of Christ. Luther retained **baptism** and **Holy Communion**, but taught that Christ is present in the Eucharist “in, with, and under” the bread and wine—not through transubstantiation, but as a divine mystery.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;As the Reformation spread, Lutheranism became the dominant form of Christianity in **Germany**, **Scandinavia**, and parts of Eastern Europe. It shaped education, hymnody (Luther himself wrote many hymns, including *A Mighty Fortress Is Our God*), and civic life. It also inspired political shifts, as princes and city-states embraced Lutheranism both for conviction and independence from Rome.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Though it sparked division, Lutheranism also rekindled the central Christian message: that God justifies sinners through Christ, by grace, received in faith. It gave the Church a new voice—and gave countless believers a new sense of freedom and peace.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;In 1521, a lone monk stood before the most powerful men of Europe. He had been summoned to a city with an unforgettable name—**Worms**—to answer for his writings that had shaken the Church to its core. Offered a chance to recant, **Martin Luther** refused. The words he spoke at the **Diet of Worms** became a rallying cry for the Reformation—and for all who seek truth over power.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Diet of Worms was an imperial assembly convened by **Charles V**, the newly crowned **Holy Roman Emperor**, to address the growing crisis caused by Luther’s teachings. Luther had already been excommunicated by the pope. Now, he stood before the emperor, bishops, princes, and theologians—not to debate, but to revoke his books.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Spread before him were volumes of his writings—on salvation, Church abuses, papal authority, and more. He was asked plainly: *“Do you recant what you have written?”* Luther requested a day to consider. He prayed. He struggled. Then he returned—and stood firm.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His response was careful, yet powerful: *“Unless I am convinced by the testimony of the Scriptures or by clear reason—for I do not trust either in the pope or in councils alone… I am bound by the Scriptures I have quoted and my conscience is captive to the Word of God. I cannot and will not recant anything, for to go against conscience is neither right nor safe. Here I stand. I can do no other. God help me. Amen.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Luther was declared an outlaw by the **Edict of Worms**, meaning anyone could kill him without legal consequence. But he was secretly protected by **Frederick the Wise**, Elector of Saxony, who hid him at **Wartburg Castle**. There, Luther began his monumental **translation of the New Testament into German**, giving the Word of God to the common people in their own tongue.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Diet of Worms did not end the controversy—it intensified it. But it revealed the heart of the Reformation: the conviction that Scripture stands above popes and emperors, and that conscience, shaped by the Word, cannot be coerced.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;At Worms, Luther did not found a new church. He stood for the gospel as he understood it: salvation by grace through faith. His courage gave birth to a movement that would change not just Christianity—but the very fabric of Europe.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;While Luther was igniting reform in Germany, a parallel flame was kindled in Switzerland. **Ulrich Zwingli**, a priest turned reformer, led the city of **Zurich** into a bold new vision of Christianity—one grounded in Scripture, stripped of tradition, and organized by reason and civic order. His voice was sharp, his theology rigorous, and his break with Rome total.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Zwingli was born in 1484, the same year as Luther. A gifted scholar and humanist, he studied in Basel and Vienna and was deeply influenced by **Erasmus**. But as he read the New Testament in Greek and compared it to Church practices, he became convinced that many traditions—like indulgences, priestly celibacy, the veneration of saints, and the Mass—had no scriptural basis.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1519, Zwingli began preaching verse-by-verse through the Bible at the **Grossmünster** in Zurich. He rejected anything not found explicitly in Scripture. Under his leadership, the city council abolished the Mass, removed images from churches, and restructured worship around the Word, prayer, and the Lord’s Supper.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Unlike Luther, who believed Christ was truly present “in, with, and under” the elements of Communion, Zwingli taught that the **Eucharist was purely symbolic**—a memorial of Christ’s sacrifice. This difference would become one of the most divisive issues among early Protestants.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Zwingli also emphasized the **unity of Church and state**, seeing the city as a Christian community governed by God’s law. Moral discipline, education, and public order became part of the reformation effort. He encouraged **clerical marriage**, translated Scripture into the vernacular, and rejected monasticism as unbiblical.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In 1529, Zwingli met with Luther at the **Marburg Colloquy** to try to unify their movements. They agreed on 14 of 15 theological points—but clashed over the Lord’s Supper. Despite a shared commitment to Scripture, their division held.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Zwingli died in 1531 during battle at the **Second War of Kappel**, fighting against Catholic forces. He died with a sword in his hand and a Bible in his heart—a reformer whose zeal cost him his life.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Ulrich Zwingli helped shape the Reformation into more than a German phenomenon. His insistence on **Scripture alone**, simplicity in worship, and symbolic interpretation of the sacraments laid the foundation for **Reformed Protestantism**—a path later advanced by figures like Calvin and Knox.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;He never intended to become a revolutionary—but his pen reshaped the Church, the pulpit, and even Western society. **John Calvin**, born in 1509 in France, emerged as the towering figure of the **Reformed tradition**. Through his preaching, writing, and leadership in **Geneva**, he gave Protestantism a new structure—intensely theological, morally rigorous, and rooted in the sovereignty of God.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Originally trained as a lawyer and steeped in humanist scholarship, Calvin was converted to the Reformation cause in his early 20s. Forced to flee Catholic France, he wrote the first edition of his masterpiece, the **Institutes of the Christian Religion**, at just 27 years old. It became the most systematic and influential theological work of the Reformation era.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;At the heart of Calvin’s theology was a deep conviction in the **absolute sovereignty of God**. He taught that salvation was entirely the work of divine grace—predestined, undeserved, and unshakable. Humans, marred by sin, could do nothing to earn salvation. Yet in Christ, the elect were chosen, justified, and sanctified for God’s glory.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Calvin believed in the **authority of Scripture alone**, the **centrality of preaching**, and the need for **discipline** in the Church. In Geneva, he helped establish a system of governance that included **pastors**, **teachers**, **elders**, and **deacons**—a model that influenced later Presbyterian and Reformed churches worldwide.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Worship in Calvin’s Geneva was simple and sober. No images, no ornate rituals—just the reading of Scripture, preaching, prayer, and singing of psalms. The **Lord’s Supper** was celebrated regularly, seen not as a sacrifice or mere symbol, but a spiritual communion with Christ through faith.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Calvin’s influence extended far beyond Switzerland. His writings shaped Protestant communities in **France**, **Scotland**, **the Netherlands**, and **England**. His teachings formed the backbone of **Puritanism** and inspired generations of reformers, theologians, and statesmen. Even his critics recognized his brilliance and discipline.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Though strict and sometimes uncompromising—especially in his role enforcing moral discipline in Geneva—Calvin left a legacy of deep devotion, theological clarity, and unshakable commitment to the majesty of God. He died in 1564, requesting no elaborate tombstone: *“What mattered was not the man—but the God he served.”*&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;John Calvin didn’t just lead a church—he built a vision. One where the Word governed the people, and where every square inch of life was lived under the gaze of a sovereign, gracious God.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;It was written by a 27-year-old exile—but it shook the foundations of Europe. The &lt;strong&gt;Institutes of the Christian Religion&lt;/strong&gt;, first published in 1536 by &lt;strong&gt;John Calvin&lt;/strong&gt;, became the defining text of the Reformed tradition. More than a book, it was a weapon in the hands of Protestants: precise, logical, and filled with reverence for God’s majesty.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The &lt;strong&gt;Institutes&lt;/strong&gt; began as a short handbook for French Protestants but grew into a massive, four-volume theological system. Calvin aimed to lay out the whole of Christian doctrine—from the knowledge of God, to salvation, to church order and sacraments. It was not just theology—it was battle-ready teaching for a Church at war with error.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Central to the &lt;strong&gt;Institutes&lt;/strong&gt; was the belief in the &lt;strong&gt;sovereignty of God&lt;/strong&gt;. Calvin wrote that all things happen by God's will—including salvation. This led to the doctrine of &lt;strong&gt;predestination&lt;/strong&gt;: the idea that God has, from eternity, chosen some for salvation and others for judgment. Human will, Calvin argued, is bound by sin until set free by grace.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The book emphasized the &lt;strong&gt;sufficiency of Scripture&lt;/strong&gt; and rejected all authority not rooted in the Bible. It criticized Roman Catholic practices, emphasized justification by faith alone, and called for a purified, disciplined Church centered on the Word and the sacraments.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Over the years, Calvin revised and expanded the &lt;strong&gt;Institutes&lt;/strong&gt;—not for scholars, but for ordinary believers hungry to understand their faith. He wrote clearly and passionately, with pastoral concern and unshakable conviction. The work was quickly translated into many languages and smuggled into hostile territories like France and England.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The &lt;strong&gt;Institutes of the Christian Religion&lt;/strong&gt; was more than a bestseller—it was a blueprint. It shaped the theology, structure, and spirit of Reformed churches across Europe. Even centuries later, its logic, depth, and devotion continue to inspire theologians, pastors, and seekers of truth.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Through the &lt;strong&gt;Institutes&lt;/strong&gt;, John Calvin offered not just arguments—but a vision of a world ordered by God, where Scripture reigns, grace transforms, and all life is lived before the face of a sovereign Lord.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;They were hunted, drowned, and burned—yet they refused to fight back. The &lt;strong&gt;Anabaptists&lt;/strong&gt;, born in the 1520s, were the radical wing of the Reformation. They believed the Church should be made up of true believers only—those who had personally chosen to follow Christ, even if it cost them their lives.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Their name comes from the Greek for “re-baptizers,” because they rejected infant baptism. To the Anabaptists, baptism had to be a conscious act of faith—something a baby could never make. This belief alone was enough to make them enemies of both Catholics and Protestants. In many cities, adult baptism was punishable by death.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;But the Anabaptists didn’t just argue about baptism. They called for a &lt;strong&gt;complete separation of Church and state&lt;/strong&gt;. They refused to swear oaths, serve in government, or fight in wars. For them, the true Church was a &lt;strong&gt;peaceful, voluntary community&lt;/strong&gt; of the faithful, not a political institution backed by force.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Most Anabaptists practiced &lt;strong&gt;nonviolence&lt;/strong&gt;, simplicity, and communal living. They took Jesus’ Sermon on the Mount literally—turning the other cheek, loving enemies, and living humble, obedient lives. One of their leaders, &lt;strong&gt;Menno Simons&lt;/strong&gt;, helped organize persecuted groups into what would later become the &lt;strong&gt;Mennonites&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yet not all Anabaptist movements were peaceful. In &lt;strong&gt;Münster&lt;/strong&gt;, a radical faction seized the city in 1534 and tried to establish a theocratic kingdom. The result was chaos, bloodshed, and brutal repression. The violent failure at Münster was used by critics to smear all Anabaptists as dangerous fanatics.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Still, the core legacy of the Anabaptists endured: &lt;strong&gt;believer’s baptism&lt;/strong&gt;, &lt;strong&gt;religious freedom&lt;/strong&gt;, and a Church separate from state power. Though despised in their time, their ideas would echo centuries later in &lt;strong&gt;Baptist&lt;/strong&gt;, &lt;strong&gt;Quaker&lt;/strong&gt;, and &lt;strong&gt;Amish&lt;/strong&gt; communities—and even in modern ideas of &lt;strong&gt;freedom of conscience&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The Anabaptists didn’t seek to reform society from the top—they started with the heart. In a violent, politicized age, they bore witness to a Kingdom not of this world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;It began not with a sermon or a protest—but with a marriage dispute. The &lt;strong&gt;English Reformation&lt;/strong&gt; was triggered in 1534 when &lt;strong&gt;King Henry VIII&lt;/strong&gt; broke away from the Pope after being denied an annulment. What followed was a dramatic reshaping of English religion, politics, and identity—part rebellion, part revolution.&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Henry declared himself &lt;strong&gt;Supreme Head of the Church of England&lt;/strong&gt;, dissolving monasteries, seizing church lands, and cutting off papal influence. But theologically, Henry remained largely Catholic—he rejected Protestant doctrines and even persecuted reformers. The early Church of England was more about loyalty to the crown than purity of doctrine.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;After Henry’s death in 1547, his young son &lt;strong&gt;Edward VI&lt;/strong&gt; pushed England further toward Protestantism. Under his reign, the Church adopted &lt;strong&gt;the Book of Common Prayer&lt;/strong&gt;, removed images, and emphasized justification by faith. But Edward died young, and the pendulum swung back.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;His sister &lt;strong&gt;Mary I&lt;/strong&gt;, a devout Catholic, tried to undo the Reformation. She restored papal authority and burned hundreds of Protestants at the stake—earning her the nickname &lt;strong&gt;“Bloody Mary.”&lt;/strong&gt; Her reign was short, but brutal.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Then came &lt;strong&gt;Elizabeth I&lt;/strong&gt;, who ruled for over 40 years and forged a &lt;strong&gt;middle way&lt;/strong&gt;—retaining Protestant theology but keeping many Catholic forms. The result was the &lt;strong&gt;Elizabethan Settlement&lt;/strong&gt;: a national church that blended tradition with reform. The Church of England was Protestant in belief, but still liturgical, episcopal, and cautious of extremes.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yet not everyone was satisfied. &lt;strong&gt;Puritans&lt;/strong&gt; wanted a more thorough Reformation—stripping away every trace of Catholicism. Some eventually broke away entirely, forming separatist groups like the &lt;strong&gt;Pilgrims&lt;/strong&gt; who sailed to America.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The English Reformation was never neat or purely theological. It was shaped by &lt;strong&gt;royal power&lt;/strong&gt;, &lt;strong&gt;national pride&lt;/strong&gt;, and &lt;strong&gt;political survival&lt;/strong&gt;. But its effects were lasting. It created a unique form of Protestantism, shaped English identity, and helped spark movements for religious freedom around the world.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;What began as a king’s quest for a male heir became a national transformation—one that still shapes Anglican worship and British life today.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,6 +1333,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1277,10 +1366,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,16 +1707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E6962D-3FD9-4EE5-B64F-44E6DDAE6DCB}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>57</v>
       </c>
@@ -1738,7 +1828,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3">
         <f>A2+1</f>
         <v>58</v>
@@ -1789,7 +1879,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4">
         <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>59</v>
@@ -1840,7 +1930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1888,7 +1978,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1936,7 +2026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1984,7 +2074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2032,7 +2122,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2082,7 +2172,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2132,7 +2222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2182,7 +2272,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2232,7 +2322,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2282,7 +2372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2332,7 +2422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.75">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2382,7 +2472,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2432,7 +2522,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2485,7 +2575,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2537,7 +2627,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2587,7 +2677,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2637,7 +2727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2687,7 +2777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -2737,7 +2827,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2787,7 +2877,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -2837,7 +2927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2887,7 +2977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -2937,7 +3027,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -2987,7 +3077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3037,7 +3127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3087,7 +3177,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -3137,7 +3227,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -3187,7 +3277,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -3237,7 +3327,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -3287,7 +3377,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -3337,7 +3427,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -3387,7 +3477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -3437,7 +3527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37">
         <f>A36+1</f>
         <v>92</v>
@@ -3487,7 +3577,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -3537,7 +3627,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -3580,7 +3670,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="B40" t="s">
         <v>60</v>
       </c>
@@ -3623,7 +3713,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -3666,7 +3756,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="B42" t="s">
         <v>62</v>
       </c>
@@ -3709,7 +3799,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="B43" t="s">
         <v>63</v>
       </c>
@@ -3752,7 +3842,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="B44" t="s">
         <v>64</v>
       </c>
@@ -3795,7 +3885,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="B45" t="s">
         <v>65</v>
       </c>
@@ -3838,7 +3928,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="B46" t="s">
         <v>66</v>
       </c>
@@ -3881,7 +3971,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="B47" t="s">
         <v>67</v>
       </c>
@@ -3924,7 +4014,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="B48" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +4057,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4100,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20">
       <c r="B50" t="s">
         <v>70</v>
       </c>
@@ -4053,7 +4143,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20">
       <c r="B51" t="s">
         <v>71</v>
       </c>
@@ -4096,7 +4186,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20">
       <c r="B52" t="s">
         <v>72</v>
       </c>
@@ -4139,7 +4229,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20">
       <c r="B53" t="s">
         <v>73</v>
       </c>
@@ -4182,7 +4272,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="B54" t="s">
         <v>74</v>
       </c>
@@ -4225,7 +4315,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="B55" t="s">
         <v>75</v>
       </c>
@@ -4268,7 +4358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="B56" t="s">
         <v>76</v>
       </c>
@@ -4311,7 +4401,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="B57" t="s">
         <v>77</v>
       </c>
@@ -4354,7 +4444,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="B58" t="s">
         <v>78</v>
       </c>
@@ -4397,7 +4487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20">
       <c r="B59" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +4530,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="B60" t="s">
         <v>80</v>
       </c>
@@ -4483,7 +4573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20">
       <c r="B61" t="s">
         <v>81</v>
       </c>
@@ -4526,7 +4616,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="B62" t="s">
         <v>82</v>
       </c>
@@ -4569,7 +4659,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" t="s">
         <v>83</v>
       </c>
@@ -4612,7 +4702,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" t="s">
         <v>84</v>
       </c>
@@ -4655,7 +4745,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20">
       <c r="B65" t="s">
         <v>85</v>
       </c>
@@ -4698,7 +4788,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20">
       <c r="B66" t="s">
         <v>86</v>
       </c>
@@ -4741,7 +4831,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20">
       <c r="B67" t="s">
         <v>87</v>
       </c>
@@ -4784,7 +4874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20">
       <c r="B68" t="s">
         <v>88</v>
       </c>
@@ -4827,7 +4917,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20">
       <c r="B69" t="s">
         <v>89</v>
       </c>
@@ -4870,7 +4960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20">
       <c r="B70" t="s">
         <v>90</v>
       </c>
@@ -4913,7 +5003,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20">
       <c r="B71" t="s">
         <v>91</v>
       </c>
@@ -4956,7 +5046,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20">
       <c r="B72" t="s">
         <v>92</v>
       </c>
@@ -4999,7 +5089,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20">
       <c r="B73" t="s">
         <v>93</v>
       </c>
@@ -5042,7 +5132,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20">
       <c r="B74" t="s">
         <v>94</v>
       </c>
@@ -5085,7 +5175,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20">
       <c r="B75" t="s">
         <v>95</v>
       </c>
@@ -5128,7 +5218,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20">
       <c r="B76" t="s">
         <v>96</v>
       </c>
@@ -5171,7 +5261,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20">
       <c r="B77" t="s">
         <v>97</v>
       </c>
@@ -5214,7 +5304,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20">
       <c r="B78" t="s">
         <v>98</v>
       </c>
@@ -5257,7 +5347,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20">
       <c r="B79" t="s">
         <v>99</v>
       </c>
@@ -5300,7 +5390,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20">
       <c r="B80" t="s">
         <v>100</v>
       </c>
@@ -5343,7 +5433,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20">
       <c r="B81" t="s">
         <v>101</v>
       </c>
@@ -5386,7 +5476,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20">
       <c r="B82" t="s">
         <v>102</v>
       </c>
@@ -5429,7 +5519,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20">
       <c r="B83" t="s">
         <v>103</v>
       </c>
@@ -5465,11 +5555,14 @@
       <c r="N83">
         <v>2</v>
       </c>
+      <c r="P83" t="s">
+        <v>398</v>
+      </c>
       <c r="T83" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20">
       <c r="B84" t="s">
         <v>104</v>
       </c>
@@ -5505,11 +5598,14 @@
       <c r="N84">
         <v>2</v>
       </c>
+      <c r="P84" t="s">
+        <v>399</v>
+      </c>
       <c r="T84" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20">
       <c r="B85" t="s">
         <v>105</v>
       </c>
@@ -5545,11 +5641,14 @@
       <c r="N85">
         <v>2</v>
       </c>
+      <c r="P85" t="s">
+        <v>400</v>
+      </c>
       <c r="T85" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20">
       <c r="B86" t="s">
         <v>106</v>
       </c>
@@ -5585,11 +5684,14 @@
       <c r="N86">
         <v>2</v>
       </c>
+      <c r="P86" t="s">
+        <v>401</v>
+      </c>
       <c r="T86" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20">
       <c r="B87" t="s">
         <v>107</v>
       </c>
@@ -5625,11 +5727,14 @@
       <c r="N87">
         <v>2</v>
       </c>
+      <c r="P87" t="s">
+        <v>402</v>
+      </c>
       <c r="T87" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20">
       <c r="B88" t="s">
         <v>108</v>
       </c>
@@ -5665,11 +5770,14 @@
       <c r="N88">
         <v>2</v>
       </c>
+      <c r="P88" t="s">
+        <v>403</v>
+      </c>
       <c r="T88" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20">
       <c r="B89" t="s">
         <v>109</v>
       </c>
@@ -5705,11 +5813,14 @@
       <c r="N89">
         <v>2</v>
       </c>
+      <c r="P89" t="s">
+        <v>404</v>
+      </c>
       <c r="T89" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20">
       <c r="B90" t="s">
         <v>110</v>
       </c>
@@ -5745,11 +5856,14 @@
       <c r="N90">
         <v>2</v>
       </c>
+      <c r="P90" t="s">
+        <v>405</v>
+      </c>
       <c r="T90" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20">
       <c r="B91" t="s">
         <v>111</v>
       </c>
@@ -5785,11 +5899,14 @@
       <c r="N91">
         <v>2</v>
       </c>
+      <c r="P91" t="s">
+        <v>406</v>
+      </c>
       <c r="T91" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20">
       <c r="B92" t="s">
         <v>112</v>
       </c>
@@ -5825,11 +5942,14 @@
       <c r="N92">
         <v>2</v>
       </c>
+      <c r="P92" t="s">
+        <v>407</v>
+      </c>
       <c r="T92" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:20">
       <c r="B93" t="s">
         <v>113</v>
       </c>
@@ -5865,11 +5985,14 @@
       <c r="N93">
         <v>2</v>
       </c>
+      <c r="P93" t="s">
+        <v>408</v>
+      </c>
       <c r="T93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:20">
       <c r="B94" t="s">
         <v>114</v>
       </c>
@@ -5905,11 +6028,14 @@
       <c r="N94">
         <v>2</v>
       </c>
+      <c r="P94" t="s">
+        <v>409</v>
+      </c>
       <c r="T94" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:20">
       <c r="B95" t="s">
         <v>115</v>
       </c>
@@ -5945,11 +6071,14 @@
       <c r="N95">
         <v>2</v>
       </c>
+      <c r="P95" t="s">
+        <v>410</v>
+      </c>
       <c r="T95" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:20">
       <c r="B96" t="s">
         <v>116</v>
       </c>
@@ -5985,11 +6114,14 @@
       <c r="N96">
         <v>2</v>
       </c>
+      <c r="P96" t="s">
+        <v>411</v>
+      </c>
       <c r="T96" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:20">
       <c r="B97" t="s">
         <v>193</v>
       </c>
@@ -6025,11 +6157,14 @@
       <c r="N97">
         <v>2</v>
       </c>
+      <c r="P97" t="s">
+        <v>412</v>
+      </c>
       <c r="T97" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:20">
       <c r="B98" t="s">
         <v>117</v>
       </c>
@@ -6065,11 +6200,14 @@
       <c r="N98">
         <v>2</v>
       </c>
+      <c r="P98" t="s">
+        <v>413</v>
+      </c>
       <c r="T98" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20">
       <c r="B99" t="s">
         <v>118</v>
       </c>
@@ -6105,11 +6243,14 @@
       <c r="N99">
         <v>2</v>
       </c>
+      <c r="P99" t="s">
+        <v>414</v>
+      </c>
       <c r="T99" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20">
       <c r="B100" t="s">
         <v>119</v>
       </c>
@@ -6145,11 +6286,14 @@
       <c r="N100">
         <v>2</v>
       </c>
+      <c r="P100" t="s">
+        <v>415</v>
+      </c>
       <c r="T100" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:20">
       <c r="B101" t="s">
         <v>120</v>
       </c>
@@ -6185,11 +6329,14 @@
       <c r="N101">
         <v>2</v>
       </c>
+      <c r="P101" t="s">
+        <v>416</v>
+      </c>
       <c r="T101" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20">
       <c r="B102" t="s">
         <v>121</v>
       </c>
@@ -6225,11 +6372,14 @@
       <c r="N102">
         <v>2</v>
       </c>
+      <c r="P102" t="s">
+        <v>417</v>
+      </c>
       <c r="T102" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20">
       <c r="B103" t="s">
         <v>122</v>
       </c>
@@ -6265,11 +6415,14 @@
       <c r="N103">
         <v>2</v>
       </c>
+      <c r="P103" t="s">
+        <v>418</v>
+      </c>
       <c r="T103" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:20">
       <c r="B104" t="s">
         <v>123</v>
       </c>
@@ -6305,11 +6458,14 @@
       <c r="N104">
         <v>2</v>
       </c>
+      <c r="P104" t="s">
+        <v>419</v>
+      </c>
       <c r="T104" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:20">
       <c r="B105" t="s">
         <v>124</v>
       </c>
@@ -6345,11 +6501,14 @@
       <c r="N105">
         <v>2</v>
       </c>
+      <c r="P105" t="s">
+        <v>420</v>
+      </c>
       <c r="T105" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:20">
       <c r="B106" t="s">
         <v>125</v>
       </c>
@@ -6385,11 +6544,14 @@
       <c r="N106">
         <v>2</v>
       </c>
+      <c r="P106" t="s">
+        <v>421</v>
+      </c>
       <c r="T106" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:20">
       <c r="B107" t="s">
         <v>126</v>
       </c>
@@ -6425,11 +6587,14 @@
       <c r="N107">
         <v>2</v>
       </c>
+      <c r="P107" t="s">
+        <v>422</v>
+      </c>
       <c r="T107" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:20">
       <c r="B108" t="s">
         <v>127</v>
       </c>
@@ -6465,11 +6630,14 @@
       <c r="N108">
         <v>2</v>
       </c>
+      <c r="P108" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="T108" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:20">
       <c r="B109" t="s">
         <v>128</v>
       </c>
@@ -6505,11 +6673,14 @@
       <c r="N109">
         <v>2</v>
       </c>
+      <c r="P109" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="T109" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:20">
       <c r="B110" t="s">
         <v>129</v>
       </c>
@@ -6545,11 +6716,14 @@
       <c r="N110">
         <v>2</v>
       </c>
+      <c r="P110" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="T110" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:20">
       <c r="B111" t="s">
         <v>130</v>
       </c>
@@ -6589,7 +6763,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:20">
       <c r="B112" t="s">
         <v>131</v>
       </c>
@@ -6629,7 +6803,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:20">
       <c r="B113" t="s">
         <v>132</v>
       </c>
@@ -6669,7 +6843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20">
       <c r="B114" t="s">
         <v>133</v>
       </c>
@@ -6709,7 +6883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:20">
       <c r="B115" t="s">
         <v>134</v>
       </c>
@@ -6749,7 +6923,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:20">
       <c r="B116" t="s">
         <v>135</v>
       </c>
@@ -6789,7 +6963,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:20">
       <c r="B117" t="s">
         <v>136</v>
       </c>
@@ -6829,7 +7003,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:20">
       <c r="B118" t="s">
         <v>137</v>
       </c>
@@ -6869,7 +7043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:20">
       <c r="B119" t="s">
         <v>138</v>
       </c>
@@ -6909,7 +7083,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:20">
       <c r="B120" t="s">
         <v>139</v>
       </c>
@@ -6949,7 +7123,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:20">
       <c r="B121" t="s">
         <v>140</v>
       </c>
@@ -6989,7 +7163,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:20">
       <c r="B122" t="s">
         <v>141</v>
       </c>
@@ -7029,7 +7203,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:20">
       <c r="B123" t="s">
         <v>142</v>
       </c>
@@ -7069,7 +7243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:20">
       <c r="B124" t="s">
         <v>143</v>
       </c>
@@ -7109,7 +7283,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:20">
       <c r="B125" t="s">
         <v>144</v>
       </c>
@@ -7149,7 +7323,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:20">
       <c r="B126" t="s">
         <v>145</v>
       </c>
@@ -7189,7 +7363,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:20">
       <c r="B127" t="s">
         <v>146</v>
       </c>
@@ -7229,7 +7403,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:20">
       <c r="B128" t="s">
         <v>147</v>
       </c>
@@ -7269,7 +7443,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20">
       <c r="B129" t="s">
         <v>148</v>
       </c>
@@ -7309,7 +7483,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:20">
       <c r="B130" t="s">
         <v>149</v>
       </c>
@@ -7349,7 +7523,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:20">
       <c r="B131" t="s">
         <v>150</v>
       </c>
@@ -7389,7 +7563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:20">
       <c r="B132" t="s">
         <v>151</v>
       </c>
@@ -7429,7 +7603,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:20">
       <c r="B133" t="s">
         <v>152</v>
       </c>
@@ -7469,7 +7643,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:20">
       <c r="B134" t="s">
         <v>153</v>
       </c>
@@ -7509,7 +7683,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:20">
       <c r="B135" t="s">
         <v>154</v>
       </c>
@@ -7549,7 +7723,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:20">
       <c r="B136" t="s">
         <v>155</v>
       </c>
@@ -7589,7 +7763,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:20">
       <c r="B137" t="s">
         <v>156</v>
       </c>
@@ -7629,7 +7803,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:20">
       <c r="B138" t="s">
         <v>157</v>
       </c>
@@ -7669,7 +7843,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:20">
       <c r="B139" t="s">
         <v>158</v>
       </c>
@@ -7709,7 +7883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:20">
       <c r="B140" t="s">
         <v>159</v>
       </c>
@@ -7749,7 +7923,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:20">
       <c r="B141" t="s">
         <v>160</v>
       </c>
@@ -7789,7 +7963,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:20">
       <c r="B142" t="s">
         <v>161</v>
       </c>
@@ -7829,7 +8003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:20">
       <c r="B143" t="s">
         <v>162</v>
       </c>
@@ -7869,7 +8043,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:20">
       <c r="B144" t="s">
         <v>163</v>
       </c>
@@ -7909,7 +8083,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20">
       <c r="B145" t="s">
         <v>164</v>
       </c>
@@ -7949,7 +8123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:20">
       <c r="B146" t="s">
         <v>165</v>
       </c>
@@ -7989,7 +8163,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20">
       <c r="B147" t="s">
         <v>166</v>
       </c>
@@ -8029,7 +8203,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20">
       <c r="B148" t="s">
         <v>167</v>
       </c>
@@ -8069,7 +8243,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20">
       <c r="B149" t="s">
         <v>168</v>
       </c>
@@ -8109,7 +8283,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20">
       <c r="B150" t="s">
         <v>169</v>
       </c>
@@ -8149,7 +8323,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:20">
       <c r="B151" t="s">
         <v>170</v>
       </c>
@@ -8189,7 +8363,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20">
       <c r="B152" t="s">
         <v>171</v>
       </c>
@@ -8231,5 +8405,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>